--- a/src/ztest_excel_image_header.w3mi.data.xlsx
+++ b/src/ztest_excel_image_header.w3mi.data.xlsx
@@ -83,7 +83,7 @@
     <xdr:ext cx="1581150" cy="714375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="0800271CCEE91EEC9AC683DB77615147"/>
+        <xdr:cNvPr id="1" name="000D3AAA88F21EDDBB9D66F1A5E675A9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
